--- a/data/trans_bre/P1423_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Clase-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>2.356746015955302</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5144088763406491</v>
+        <v>0.5144088763406489</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8208492187122435</v>
+        <v>0.8012753500392332</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8622226475146525</v>
+        <v>-0.5278228397825917</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1036380590883035</v>
+        <v>0.1012542815531807</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2298170813726534</v>
+        <v>-0.1443970630480101</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.102435715929459</v>
+        <v>6.334871275770053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.074631284140683</v>
+        <v>4.241128560378008</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10.7055449653939</v>
+        <v>11.39365403455822</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.777876177647733</v>
+        <v>1.934681029199698</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>1.826070937690459</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.624804678121442</v>
+        <v>1.624804678121444</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.489901636639044</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3900440986011037</v>
+        <v>0.3900440986011041</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0499097093425621</v>
+        <v>0.2923008970231571</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7982628080018561</v>
+        <v>-0.9732779878866196</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3440045474138111</v>
+        <v>-0.3289763843803299</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1670257835721877</v>
+        <v>-0.1867420478083398</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.234537877775756</v>
+        <v>4.286479389456662</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.442942567634315</v>
+        <v>4.131271259736897</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>15.64341818359927</v>
+        <v>17.52503370856681</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.587768333619821</v>
+        <v>1.459486516597356</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>8.966377172659715</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.734561965863047</v>
+        <v>2.734561965863048</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>3.435072822566155</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.4667703861520447</v>
+        <v>0.466770386152045</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.150612186412169</v>
+        <v>4.231775592221189</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7806767088399325</v>
+        <v>-0.6528092454106563</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.9927608620247318</v>
+        <v>1.119229513463017</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1279809180769866</v>
+        <v>-0.1217557921704739</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.82409139931816</v>
+        <v>15.23140480295779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.532977064232863</v>
+        <v>6.434910488987771</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>8.188606616205441</v>
+        <v>8.12575959902771</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.453129373750552</v>
+        <v>1.517786132248563</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>1.253610835036342</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.6641573028351663</v>
+        <v>0.6641573028351665</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.153166412553325</v>
+        <v>1.160232709242164</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.145269425056528</v>
+        <v>1.061182934416469</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3368325660470924</v>
+        <v>0.3087301641513291</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1956940710521539</v>
+        <v>0.1939949063930095</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.059199012653962</v>
+        <v>4.925181968958546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.021614004806044</v>
+        <v>5.110532392910653</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.756489310819668</v>
+        <v>2.804482306061489</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.289495700370408</v>
+        <v>1.371186828234203</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>6.965469881457868</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.742823269628376</v>
+        <v>6.742823269628379</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.168671228308405</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.321990404387967</v>
+        <v>1.321990404387968</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.261174728108884</v>
+        <v>4.262034603550314</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.843280554364113</v>
+        <v>4.181738426584205</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.9470145948258646</v>
+        <v>0.9308458165662862</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.5186596517807177</v>
+        <v>0.614147712109322</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.860538681135473</v>
+        <v>9.681376747954239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.354823311186781</v>
+        <v>9.293112939803569</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4.466686715949661</v>
+        <v>4.222511698049169</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.642735878615567</v>
+        <v>2.587215551538258</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>6.786448306934345</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.358464566124606</v>
+        <v>2.358464566124609</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>9.083830337167003</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4158242554650949</v>
+        <v>0.4158242554650954</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.875741470141104</v>
+        <v>4.728204998290357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.46072503166525</v>
+        <v>-3.218215261580448</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2.262806439865722</v>
+        <v>1.520413155023104</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.346513891111617</v>
+        <v>-0.3069770593502744</v>
       </c>
     </row>
     <row r="21">
@@ -949,14 +949,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.689111380489354</v>
+        <v>8.648802409824867</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.736477876115261</v>
+        <v>5.907310264432175</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.906139993798998</v>
+        <v>2.180918642723032</v>
       </c>
     </row>
     <row r="22">
@@ -974,13 +974,13 @@
         <v>4.800943638076815</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.528955389546805</v>
+        <v>3.528955389546803</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>2.303467088690321</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.7446637114314686</v>
+        <v>0.7446637114314683</v>
       </c>
     </row>
     <row r="23">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.881710327493742</v>
+        <v>3.858039630436094</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.450874569845187</v>
+        <v>2.408417071119302</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.536325842786816</v>
+        <v>1.579667545432969</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4382957922845342</v>
+        <v>0.448185613276862</v>
       </c>
     </row>
     <row r="24">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.826552479108795</v>
+        <v>5.83582276560655</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.500793577243348</v>
+        <v>4.641296564992069</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3.309682845733049</v>
+        <v>3.455305441937295</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.088746780540903</v>
+        <v>1.102630828109377</v>
       </c>
     </row>
     <row r="25">
